--- a/02_MasterWifoMannheim/99_Backup/Course126.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course126.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F59281159D610B66183FAF9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C24DC4F-ED51-43D8-A3C5-71662AD47105}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3005A715B7A3B11596D40347029FA15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32AAB786-BD45-4E17-B769-A2660E28BB4F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>Modul</t>
   </si>
   <si>
-    <t>MAN 676: Ausgewählte Herausforderungen im Public Management</t>
+    <t>MAN 676 Ausgewählte Herausforderungen im Public Management</t>
   </si>
   <si>
     <t>Lerninhalte</t>
@@ -40,7 +40,7 @@
     <t>Nach diesem Kurs sollen die Studierenden in der Lage sein:  Rahmenbedingungen und theoretische Grundlagen des Public Management bezüglich des Schwerpunktthemas zu erklären,  Management-Herausforderungen im gewählten Schwerpunktthema kritisch zu diskutieren,  wissenschaftliche Artikel kritisch zu lesen. Des Weiteren sollen Schlüsselqualifikationen wie Präsentationskompetenz, Arbeiten mit wissenschaftlichen Texten und Teamkompetenz erworben werden.</t>
   </si>
   <si>
-    <t>IVoraussetzungen</t>
+    <t>Management (MAN)</t>
   </si>
   <si>
     <t>Anmeldepflicht:</t>
@@ -76,10 +76,10 @@
     <t>1 Semester</t>
   </si>
   <si>
-    <t>Angebotsturnus</t>
-  </si>
-  <si>
-    <t>FSS</t>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>SSS</t>
   </si>
   <si>
     <t>Sprache</t>
@@ -94,7 +94,7 @@
     <t>M.Sc. Mannheim Master in Management, M.Sc. Wirtschaftspädagogik, M.Sc. Wirtschaftsinformatik, LL.M., M.Sc. VWL, M.A. K&amp;W</t>
   </si>
   <si>
-    <t>Management (MAN)</t>
+    <t>Voraussetzungen</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,10 +500,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
